--- a/natmiOut/OldD2/LR-pairs_lrc2p/Tnfsf15-Tnfrsf25.xlsx
+++ b/natmiOut/OldD2/LR-pairs_lrc2p/Tnfsf15-Tnfrsf25.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="28">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -76,6 +76,9 @@
     <t>Edge total expression derived specificity</t>
   </si>
   <si>
+    <t>M1</t>
+  </si>
+  <si>
     <t>M2</t>
   </si>
   <si>
@@ -86,6 +89,9 @@
   </si>
   <si>
     <t>ECs</t>
+  </si>
+  <si>
+    <t>FAPs</t>
   </si>
   <si>
     <t>Neutro</t>
@@ -449,7 +455,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T5"/>
+  <dimension ref="A1:T13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -522,61 +528,61 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F2">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G2">
-        <v>1.55773677587698</v>
+        <v>0.6112069999999999</v>
       </c>
       <c r="H2">
-        <v>1.55773677587698</v>
+        <v>1.833621</v>
       </c>
       <c r="I2">
-        <v>1</v>
+        <v>0.2685266394970103</v>
       </c>
       <c r="J2">
-        <v>1</v>
+        <v>0.2685266394970103</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>5.66552047015047</v>
+        <v>5.8514425</v>
       </c>
       <c r="N2">
-        <v>5.66552047015047</v>
+        <v>11.702885</v>
       </c>
       <c r="O2">
-        <v>0.4873036714545282</v>
+        <v>0.3996439901884382</v>
       </c>
       <c r="P2">
-        <v>0.4873036714545282</v>
+        <v>0.3480817275255016</v>
       </c>
       <c r="Q2">
-        <v>8.825389590837224</v>
+        <v>3.5764426160975</v>
       </c>
       <c r="R2">
-        <v>8.825389590837224</v>
+        <v>21.458655696585</v>
       </c>
       <c r="S2">
-        <v>0.4873036714545282</v>
+        <v>0.1073150576804775</v>
       </c>
       <c r="T2">
-        <v>0.4873036714545282</v>
+        <v>0.09346921656273695</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -584,61 +590,61 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C3" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D3" t="s">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F3">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G3">
-        <v>1.55773677587698</v>
+        <v>0.6112069999999999</v>
       </c>
       <c r="H3">
-        <v>1.55773677587698</v>
+        <v>1.833621</v>
       </c>
       <c r="I3">
-        <v>1</v>
+        <v>0.2685266394970103</v>
       </c>
       <c r="J3">
-        <v>1</v>
+        <v>0.2685266394970103</v>
       </c>
       <c r="K3">
         <v>1</v>
       </c>
       <c r="L3">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M3">
-        <v>0.3603109198202</v>
+        <v>0.1044983333333333</v>
       </c>
       <c r="N3">
-        <v>0.3603109198202</v>
+        <v>0.313495</v>
       </c>
       <c r="O3">
-        <v>0.03099112164868383</v>
+        <v>0.007137065928849991</v>
       </c>
       <c r="P3">
-        <v>0.03099112164868383</v>
+        <v>0.009324357299128132</v>
       </c>
       <c r="Q3">
-        <v>0.5612695705539874</v>
+        <v>0.06387011282166667</v>
       </c>
       <c r="R3">
-        <v>0.5612695705539874</v>
+        <v>0.574831015395</v>
       </c>
       <c r="S3">
-        <v>0.03099112164868383</v>
+        <v>0.001916492329742697</v>
       </c>
       <c r="T3">
-        <v>0.03099112164868383</v>
+        <v>0.002503838331004297</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -646,61 +652,61 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C4" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D4" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F4">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G4">
-        <v>1.55773677587698</v>
+        <v>0.6112069999999999</v>
       </c>
       <c r="H4">
-        <v>1.55773677587698</v>
+        <v>1.833621</v>
       </c>
       <c r="I4">
-        <v>1</v>
+        <v>0.2685266394970103</v>
       </c>
       <c r="J4">
-        <v>1</v>
+        <v>0.2685266394970103</v>
       </c>
       <c r="K4">
         <v>1</v>
       </c>
       <c r="L4">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M4">
-        <v>3.32048775603696</v>
+        <v>0.195718</v>
       </c>
       <c r="N4">
-        <v>3.32048775603696</v>
+        <v>0.587154</v>
       </c>
       <c r="O4">
-        <v>0.2856023348713881</v>
+        <v>0.01336722055658937</v>
       </c>
       <c r="P4">
-        <v>0.2856023348713881</v>
+        <v>0.01746386285463015</v>
       </c>
       <c r="Q4">
-        <v>5.172445891428002</v>
+        <v>0.119624211626</v>
       </c>
       <c r="R4">
-        <v>5.172445891428002</v>
+        <v>1.076617904634</v>
       </c>
       <c r="S4">
-        <v>0.2856023348713881</v>
+        <v>0.003589454815476301</v>
       </c>
       <c r="T4">
-        <v>0.2856023348713881</v>
+        <v>0.004689512404990499</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -708,61 +714,557 @@
         <v>20</v>
       </c>
       <c r="B5" t="s">
+        <v>22</v>
+      </c>
+      <c r="C5" t="s">
+        <v>23</v>
+      </c>
+      <c r="D5" t="s">
         <v>21</v>
       </c>
-      <c r="C5" t="s">
+      <c r="E5">
+        <v>2</v>
+      </c>
+      <c r="F5">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G5">
+        <v>0.6112069999999999</v>
+      </c>
+      <c r="H5">
+        <v>1.833621</v>
+      </c>
+      <c r="I5">
+        <v>0.2685266394970103</v>
+      </c>
+      <c r="J5">
+        <v>0.2685266394970103</v>
+      </c>
+      <c r="K5">
+        <v>3</v>
+      </c>
+      <c r="L5">
+        <v>1</v>
+      </c>
+      <c r="M5">
+        <v>0.3976856666666667</v>
+      </c>
+      <c r="N5">
+        <v>1.193057</v>
+      </c>
+      <c r="O5">
+        <v>0.02716128316520513</v>
+      </c>
+      <c r="P5">
+        <v>0.03548538173248668</v>
+      </c>
+      <c r="Q5">
+        <v>0.2430682632663333</v>
+      </c>
+      <c r="R5">
+        <v>2.187614369397</v>
+      </c>
+      <c r="S5">
+        <v>0.007293528092779254</v>
+      </c>
+      <c r="T5">
+        <v>0.009528770307893246</v>
+      </c>
+    </row>
+    <row r="6" spans="1:20">
+      <c r="A6" t="s">
+        <v>20</v>
+      </c>
+      <c r="B6" t="s">
         <v>22</v>
       </c>
-      <c r="D5" t="s">
+      <c r="C6" t="s">
+        <v>23</v>
+      </c>
+      <c r="D6" t="s">
+        <v>26</v>
+      </c>
+      <c r="E6">
+        <v>2</v>
+      </c>
+      <c r="F6">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G6">
+        <v>0.6112069999999999</v>
+      </c>
+      <c r="H6">
+        <v>1.833621</v>
+      </c>
+      <c r="I6">
+        <v>0.2685266394970103</v>
+      </c>
+      <c r="J6">
+        <v>0.2685266394970103</v>
+      </c>
+      <c r="K6">
+        <v>3</v>
+      </c>
+      <c r="L6">
+        <v>1</v>
+      </c>
+      <c r="M6">
+        <v>3.639906666666667</v>
+      </c>
+      <c r="N6">
+        <v>10.91972</v>
+      </c>
+      <c r="O6">
+        <v>0.248599695575948</v>
+      </c>
+      <c r="P6">
+        <v>0.324787862283084</v>
+      </c>
+      <c r="Q6">
+        <v>2.224736434013333</v>
+      </c>
+      <c r="R6">
+        <v>20.02262790612</v>
+      </c>
+      <c r="S6">
+        <v>0.0667556408329891</v>
+      </c>
+      <c r="T6">
+        <v>0.08721419320829435</v>
+      </c>
+    </row>
+    <row r="7" spans="1:20">
+      <c r="A7" t="s">
+        <v>20</v>
+      </c>
+      <c r="B7" t="s">
+        <v>22</v>
+      </c>
+      <c r="C7" t="s">
+        <v>23</v>
+      </c>
+      <c r="D7" t="s">
+        <v>27</v>
+      </c>
+      <c r="E7">
+        <v>2</v>
+      </c>
+      <c r="F7">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G7">
+        <v>0.6112069999999999</v>
+      </c>
+      <c r="H7">
+        <v>1.833621</v>
+      </c>
+      <c r="I7">
+        <v>0.2685266394970103</v>
+      </c>
+      <c r="J7">
+        <v>0.2685266394970103</v>
+      </c>
+      <c r="K7">
+        <v>2</v>
+      </c>
+      <c r="L7">
+        <v>1</v>
+      </c>
+      <c r="M7">
+        <v>4.4523865</v>
+      </c>
+      <c r="N7">
+        <v>8.904773</v>
+      </c>
+      <c r="O7">
+        <v>0.3040907445849693</v>
+      </c>
+      <c r="P7">
+        <v>0.2648568083051695</v>
+      </c>
+      <c r="Q7">
+        <v>2.7213297955055</v>
+      </c>
+      <c r="R7">
+        <v>16.327978773033</v>
+      </c>
+      <c r="S7">
+        <v>0.0816564657455455</v>
+      </c>
+      <c r="T7">
+        <v>0.07112110868209102</v>
+      </c>
+    </row>
+    <row r="8" spans="1:20">
+      <c r="A8" t="s">
+        <v>21</v>
+      </c>
+      <c r="B8" t="s">
+        <v>22</v>
+      </c>
+      <c r="C8" t="s">
+        <v>23</v>
+      </c>
+      <c r="D8" t="s">
+        <v>24</v>
+      </c>
+      <c r="E8">
+        <v>3</v>
+      </c>
+      <c r="F8">
+        <v>1</v>
+      </c>
+      <c r="G8">
+        <v>1.664943333333333</v>
+      </c>
+      <c r="H8">
+        <v>4.99483</v>
+      </c>
+      <c r="I8">
+        <v>0.7314733605029897</v>
+      </c>
+      <c r="J8">
+        <v>0.7314733605029896</v>
+      </c>
+      <c r="K8">
+        <v>2</v>
+      </c>
+      <c r="L8">
+        <v>1</v>
+      </c>
+      <c r="M8">
+        <v>5.8514425</v>
+      </c>
+      <c r="N8">
+        <v>11.702885</v>
+      </c>
+      <c r="O8">
+        <v>0.3996439901884382</v>
+      </c>
+      <c r="P8">
+        <v>0.3480817275255016</v>
+      </c>
+      <c r="Q8">
+        <v>9.742320180758334</v>
+      </c>
+      <c r="R8">
+        <v>58.45392108455</v>
+      </c>
+      <c r="S8">
+        <v>0.2923289325079607</v>
+      </c>
+      <c r="T8">
+        <v>0.2546125109627646</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20">
+      <c r="A9" t="s">
+        <v>21</v>
+      </c>
+      <c r="B9" t="s">
+        <v>22</v>
+      </c>
+      <c r="C9" t="s">
+        <v>23</v>
+      </c>
+      <c r="D9" t="s">
         <v>25</v>
       </c>
-      <c r="E5">
-        <v>1</v>
-      </c>
-      <c r="F5">
-        <v>1</v>
-      </c>
-      <c r="G5">
-        <v>1.55773677587698</v>
-      </c>
-      <c r="H5">
-        <v>1.55773677587698</v>
-      </c>
-      <c r="I5">
-        <v>1</v>
-      </c>
-      <c r="J5">
-        <v>1</v>
-      </c>
-      <c r="K5">
-        <v>1</v>
-      </c>
-      <c r="L5">
-        <v>1</v>
-      </c>
-      <c r="M5">
-        <v>2.27994349478008</v>
-      </c>
-      <c r="N5">
-        <v>2.27994349478008</v>
-      </c>
-      <c r="O5">
-        <v>0.1961028720253999</v>
-      </c>
-      <c r="P5">
-        <v>0.1961028720253999</v>
-      </c>
-      <c r="Q5">
-        <v>3.551551828740416</v>
-      </c>
-      <c r="R5">
-        <v>3.551551828740416</v>
-      </c>
-      <c r="S5">
-        <v>0.1961028720253999</v>
-      </c>
-      <c r="T5">
-        <v>0.1961028720253999</v>
+      <c r="E9">
+        <v>3</v>
+      </c>
+      <c r="F9">
+        <v>1</v>
+      </c>
+      <c r="G9">
+        <v>1.664943333333333</v>
+      </c>
+      <c r="H9">
+        <v>4.99483</v>
+      </c>
+      <c r="I9">
+        <v>0.7314733605029897</v>
+      </c>
+      <c r="J9">
+        <v>0.7314733605029896</v>
+      </c>
+      <c r="K9">
+        <v>1</v>
+      </c>
+      <c r="L9">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M9">
+        <v>0.1044983333333333</v>
+      </c>
+      <c r="N9">
+        <v>0.313495</v>
+      </c>
+      <c r="O9">
+        <v>0.007137065928849991</v>
+      </c>
+      <c r="P9">
+        <v>0.009324357299128132</v>
+      </c>
+      <c r="Q9">
+        <v>0.1739838034277778</v>
+      </c>
+      <c r="R9">
+        <v>1.56585423085</v>
+      </c>
+      <c r="S9">
+        <v>0.005220573599107294</v>
+      </c>
+      <c r="T9">
+        <v>0.006820518968123835</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20">
+      <c r="A10" t="s">
+        <v>21</v>
+      </c>
+      <c r="B10" t="s">
+        <v>22</v>
+      </c>
+      <c r="C10" t="s">
+        <v>23</v>
+      </c>
+      <c r="D10" t="s">
+        <v>20</v>
+      </c>
+      <c r="E10">
+        <v>3</v>
+      </c>
+      <c r="F10">
+        <v>1</v>
+      </c>
+      <c r="G10">
+        <v>1.664943333333333</v>
+      </c>
+      <c r="H10">
+        <v>4.99483</v>
+      </c>
+      <c r="I10">
+        <v>0.7314733605029897</v>
+      </c>
+      <c r="J10">
+        <v>0.7314733605029896</v>
+      </c>
+      <c r="K10">
+        <v>1</v>
+      </c>
+      <c r="L10">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M10">
+        <v>0.195718</v>
+      </c>
+      <c r="N10">
+        <v>0.587154</v>
+      </c>
+      <c r="O10">
+        <v>0.01336722055658937</v>
+      </c>
+      <c r="P10">
+        <v>0.01746386285463015</v>
+      </c>
+      <c r="Q10">
+        <v>0.3258593793133333</v>
+      </c>
+      <c r="R10">
+        <v>2.93273441382</v>
+      </c>
+      <c r="S10">
+        <v>0.009777765741113074</v>
+      </c>
+      <c r="T10">
+        <v>0.01277435044963965</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20">
+      <c r="A11" t="s">
+        <v>21</v>
+      </c>
+      <c r="B11" t="s">
+        <v>22</v>
+      </c>
+      <c r="C11" t="s">
+        <v>23</v>
+      </c>
+      <c r="D11" t="s">
+        <v>21</v>
+      </c>
+      <c r="E11">
+        <v>3</v>
+      </c>
+      <c r="F11">
+        <v>1</v>
+      </c>
+      <c r="G11">
+        <v>1.664943333333333</v>
+      </c>
+      <c r="H11">
+        <v>4.99483</v>
+      </c>
+      <c r="I11">
+        <v>0.7314733605029897</v>
+      </c>
+      <c r="J11">
+        <v>0.7314733605029896</v>
+      </c>
+      <c r="K11">
+        <v>3</v>
+      </c>
+      <c r="L11">
+        <v>1</v>
+      </c>
+      <c r="M11">
+        <v>0.3976856666666667</v>
+      </c>
+      <c r="N11">
+        <v>1.193057</v>
+      </c>
+      <c r="O11">
+        <v>0.02716128316520513</v>
+      </c>
+      <c r="P11">
+        <v>0.03548538173248668</v>
+      </c>
+      <c r="Q11">
+        <v>0.662124099478889</v>
+      </c>
+      <c r="R11">
+        <v>5.95911689531</v>
+      </c>
+      <c r="S11">
+        <v>0.01986775507242588</v>
+      </c>
+      <c r="T11">
+        <v>0.02595661142459343</v>
+      </c>
+    </row>
+    <row r="12" spans="1:20">
+      <c r="A12" t="s">
+        <v>21</v>
+      </c>
+      <c r="B12" t="s">
+        <v>22</v>
+      </c>
+      <c r="C12" t="s">
+        <v>23</v>
+      </c>
+      <c r="D12" t="s">
+        <v>26</v>
+      </c>
+      <c r="E12">
+        <v>3</v>
+      </c>
+      <c r="F12">
+        <v>1</v>
+      </c>
+      <c r="G12">
+        <v>1.664943333333333</v>
+      </c>
+      <c r="H12">
+        <v>4.99483</v>
+      </c>
+      <c r="I12">
+        <v>0.7314733605029897</v>
+      </c>
+      <c r="J12">
+        <v>0.7314733605029896</v>
+      </c>
+      <c r="K12">
+        <v>3</v>
+      </c>
+      <c r="L12">
+        <v>1</v>
+      </c>
+      <c r="M12">
+        <v>3.639906666666667</v>
+      </c>
+      <c r="N12">
+        <v>10.91972</v>
+      </c>
+      <c r="O12">
+        <v>0.248599695575948</v>
+      </c>
+      <c r="P12">
+        <v>0.324787862283084</v>
+      </c>
+      <c r="Q12">
+        <v>6.060238338622223</v>
+      </c>
+      <c r="R12">
+        <v>54.5421450476</v>
+      </c>
+      <c r="S12">
+        <v>0.1818440547429589</v>
+      </c>
+      <c r="T12">
+        <v>0.2375736690747897</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20">
+      <c r="A13" t="s">
+        <v>21</v>
+      </c>
+      <c r="B13" t="s">
+        <v>22</v>
+      </c>
+      <c r="C13" t="s">
+        <v>23</v>
+      </c>
+      <c r="D13" t="s">
+        <v>27</v>
+      </c>
+      <c r="E13">
+        <v>3</v>
+      </c>
+      <c r="F13">
+        <v>1</v>
+      </c>
+      <c r="G13">
+        <v>1.664943333333333</v>
+      </c>
+      <c r="H13">
+        <v>4.99483</v>
+      </c>
+      <c r="I13">
+        <v>0.7314733605029897</v>
+      </c>
+      <c r="J13">
+        <v>0.7314733605029896</v>
+      </c>
+      <c r="K13">
+        <v>2</v>
+      </c>
+      <c r="L13">
+        <v>1</v>
+      </c>
+      <c r="M13">
+        <v>4.4523865</v>
+      </c>
+      <c r="N13">
+        <v>8.904773</v>
+      </c>
+      <c r="O13">
+        <v>0.3040907445849693</v>
+      </c>
+      <c r="P13">
+        <v>0.2648568083051695</v>
+      </c>
+      <c r="Q13">
+        <v>7.412971220598334</v>
+      </c>
+      <c r="R13">
+        <v>44.47782732359001</v>
+      </c>
+      <c r="S13">
+        <v>0.2224342788394238</v>
+      </c>
+      <c r="T13">
+        <v>0.1937356996230785</v>
       </c>
     </row>
   </sheetData>
